--- a/Teaching/Statistics/results/Tabel_Statistica.xlsx
+++ b/Teaching/Statistics/results/Tabel_Statistica.xlsx
@@ -1209,8 +1209,8 @@
   <dimension ref="A1:O89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="21" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <pane ySplit="21" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L89" sqref="L89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2975,14 +2975,14 @@
         <v>102</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K34">
         <v>13</v>
       </c>
       <c r="L34">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N34">
         <f t="shared" si="3"/>
@@ -2990,7 +2990,7 @@
       </c>
       <c r="O34">
         <f t="shared" si="13"/>
-        <v>3.5236842105263158</v>
+        <v>4.5236842105263158</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
@@ -5782,17 +5782,17 @@
         <v>0</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="K89">
         <v>6</v>
       </c>
       <c r="L89">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N89">
         <f t="shared" si="29"/>

--- a/Teaching/Statistics/results/Tabel_Statistica.xlsx
+++ b/Teaching/Statistics/results/Tabel_Statistica.xlsx
@@ -1206,11 +1206,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="21" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L89" sqref="L89"/>
+      <selection pane="bottomLeft" activeCell="A61" sqref="A61:XFD61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1256,7 +1257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1309,7 +1310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1362,7 +1363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1415,7 +1416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1468,7 +1469,7 @@
         <v>4.9982456140350875</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1521,7 +1522,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1574,7 +1575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1627,7 +1628,7 @@
         <v>5.2676535087719296</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1680,7 +1681,7 @@
         <v>9.3876096491228083</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1733,7 +1734,7 @@
         <v>7.456359649122807</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1786,7 +1787,7 @@
         <v>8.871052631578948</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1839,7 +1840,7 @@
         <v>8.0021929824561404</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1892,7 +1893,7 @@
         <v>2.0684210526315789</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1945,7 +1946,7 @@
         <v>3.4210526315789473</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1998,7 +1999,7 @@
         <v>6.9745614035087717</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -2051,7 +2052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -2104,7 +2105,7 @@
         <v>5.0549707602339184</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -2157,7 +2158,7 @@
         <v>3.8368421052631581</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -2210,7 +2211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -2263,7 +2264,7 @@
         <v>6.3505482456140356</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -2316,7 +2317,7 @@
         <v>7.4692982456140351</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>99</v>
       </c>
@@ -2369,7 +2370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -2421,7 +2422,7 @@
         <v>7.5077485380116959</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -2473,7 +2474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -2525,7 +2526,7 @@
         <v>7.362141812865497</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -2577,7 +2578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -2629,7 +2630,7 @@
         <v>6.4842105263157901</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -2681,7 +2682,7 @@
         <v>5.4136842105263163</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -2733,7 +2734,7 @@
         <v>2.1838888888888888</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
@@ -2785,7 +2786,7 @@
         <v>6.7253289473684212</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -2837,7 +2838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -2889,7 +2890,7 @@
         <v>3.2148611111111114</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -2941,7 +2942,7 @@
         <v>7.256695906432749</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -2993,7 +2994,7 @@
         <v>4.5236842105263158</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:15" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
@@ -3045,7 +3046,7 @@
         <v>4.5080043859649122</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -3097,7 +3098,7 @@
         <v>6.2387061403508763</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -3149,7 +3150,7 @@
         <v>7.103859649122807</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -3201,7 +3202,7 @@
         <v>7.1151315789473681</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -3253,7 +3254,7 @@
         <v>9.696410818713451</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -3305,7 +3306,7 @@
         <v>6.3715789473684215</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -3357,7 +3358,7 @@
         <v>4.6046491228070181</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -3409,7 +3410,7 @@
         <v>6.081052631578947</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -3461,7 +3462,7 @@
         <v>2.236842105263158</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -3513,7 +3514,7 @@
         <v>6.0555921052631572</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -5741,7 +5742,7 @@
         <v>5.9810526315789474</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="L88">
         <f t="shared" ref="L88:L89" si="28">ROUND(MIN(MIN((C88/40+D88/50+E88/30+F88/50+G88/30+H88/60)/6*2.5+I88/190*2,3.5)+1+J88/40*2+K88/10,10),0)</f>
         <v>1</v>
@@ -5751,7 +5752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A89" s="4" t="s">
         <v>94</v>
       </c>
@@ -5800,7 +5801,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L89"/>
+  <autoFilter ref="A1:L89">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="321"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
